--- a/biology/Biochimie/Glycine_(acide_aminé)/Glycine_(acide_aminé).xlsx
+++ b/biology/Biochimie/Glycine_(acide_aminé)/Glycine_(acide_aminé).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glycine_(acide_amin%C3%A9)</t>
+          <t>Glycine_(acide_aminé)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La glycine (abréviations UICPA-UIBBM : Gly et G) est un acide α-aminé et l'un des vingt-deux acides aminés protéinogènes. Elle est encodée sur les ARN messagers par les codons GGU, GGC, GGA et GGG. C'est le plus simple des acides α-aminés, et elle ne possède aucun atome de carbone asymétrique. Son rayon de van der Waals est égal à 48 Å. Ce qui le rend unique dans la production d'acides aminés par les protéines, c'est qu'il n'est pas chiral. Grâce à sa chaîne latérale minimale d'un seul atome d'hydrogène, il peut s'adapter à des environnements hydrophiles ou hydrophobes. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glycine_(acide_amin%C3%A9)</t>
+          <t>Glycine_(acide_aminé)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Fonctions biologiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La molécule de glycine joue un rôle de neurotransmetteur inhibiteur au niveau de la moelle épinière et de modulateur allostérique positif des récepteurs NMDA au glutamate dans l'ensemble du système nerveux central.
 Ce n'est pas une molécule chirale (c'est une exception pour les acides aminés).
@@ -525,7 +539,7 @@
 sérine + tétrahydrofolate  
         ⇌
     {\displaystyle \rightleftharpoons }
-  5,10-méthylènetétrahydrofolate + glycine + H2O[5].</t>
+  5,10-méthylènetétrahydrofolate + glycine + H2O.</t>
         </is>
       </c>
     </row>
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Glycine_(acide_amin%C3%A9)</t>
+          <t>Glycine_(acide_aminé)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,7 +567,9 @@
           <t>Catabolisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La glycine déshydrogénase catalyse la réaction suivante, qui est réversible :
 glycine + tétrahydrofolate + NAD+  
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Glycine_(acide_amin%C3%A9)</t>
+          <t>Glycine_(acide_aminé)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,10 +603,12 @@
           <t>Présence dans l'espace</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De la glycine avait été trouvée dans de nombreuses météorites. Et depuis 2004, elle a été identifiée dans la traînée de comètes : d'abord par la sonde américaine Stardust dans le panache de la comète Wild 2[6], puis dans la queue de la comète 67P/Tchourioumov-Guérassimenko par l'instrument ROSINA (Rosetta Orbiter Spectrometer for Ion and Neutral Analysis) installé sur la sonde Rosetta[7],[6].
-Ceci conforte l'hypothèse des exobiologistes d'une introduction d'acides aminés d'origine non terrestre dans l'atmosphère primitive de la Terre[6],[8]. La glycine n'étant pas volatile, sa présence dans la queue de comètes laisse penser qu'elle serait présente en plus grande quantité dans la glace cométaire. Cette découverte renforce l'hypothèse selon laquelle la vie pourrait s'être formée sur Terre grâce à l'apport de molécules d'origine extraterrestre dans la « soupe prébiotique », d'autant que les capteurs de la sonde Rosetta ont aussi détecté du phosphore, élément constitutif de l'ATP, moteur énergétique cellulaire essentiel pour le vivant sur Terre[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De la glycine avait été trouvée dans de nombreuses météorites. Et depuis 2004, elle a été identifiée dans la traînée de comètes : d'abord par la sonde américaine Stardust dans le panache de la comète Wild 2, puis dans la queue de la comète 67P/Tchourioumov-Guérassimenko par l'instrument ROSINA (Rosetta Orbiter Spectrometer for Ion and Neutral Analysis) installé sur la sonde Rosetta,.
+Ceci conforte l'hypothèse des exobiologistes d'une introduction d'acides aminés d'origine non terrestre dans l'atmosphère primitive de la Terre,. La glycine n'étant pas volatile, sa présence dans la queue de comètes laisse penser qu'elle serait présente en plus grande quantité dans la glace cométaire. Cette découverte renforce l'hypothèse selon laquelle la vie pourrait s'être formée sur Terre grâce à l'apport de molécules d'origine extraterrestre dans la « soupe prébiotique », d'autant que les capteurs de la sonde Rosetta ont aussi détecté du phosphore, élément constitutif de l'ATP, moteur énergétique cellulaire essentiel pour le vivant sur Terre.
 </t>
         </is>
       </c>
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Glycine_(acide_amin%C3%A9)</t>
+          <t>Glycine_(acide_aminé)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Analogue structurel</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Un analogue structurel de la glycine est le glyphosate, molécule utilisé comme matière active de la plupart des pesticides désherbants totaux foliaires utilisés dans le monde.
 </t>
